--- a/analysis/5.1/settlingTime_100.1_0.1.xlsx
+++ b/analysis/5.1/settlingTime_100.1_0.1.xlsx
@@ -669,10 +669,10 @@
         <v>0.1</v>
       </c>
       <c r="D17">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="E17">
-        <v>198.7817</v>
+        <v>198.7847</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -686,10 +686,10 @@
         <v>0.1</v>
       </c>
       <c r="D18">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="E18">
-        <v>198.7847</v>
+        <v>198.8086</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -703,10 +703,10 @@
         <v>0.1</v>
       </c>
       <c r="D19">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="E19">
-        <v>198.8059</v>
+        <v>198.8417</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -720,10 +720,10 @@
         <v>0.1</v>
       </c>
       <c r="D20">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="E20">
-        <v>198.8086</v>
+        <v>198.8059</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -754,10 +754,10 @@
         <v>0.1</v>
       </c>
       <c r="D22">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="E22">
-        <v>198.8417</v>
+        <v>198.7817</v>
       </c>
     </row>
   </sheetData>
